--- a/FE/public/download/ExampleTaskFile.xlsx
+++ b/FE/public/download/ExampleTaskFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ims\ims\FE\public\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9108AAF-C9A3-4403-B4F0-225CC12072F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2EF4D5-1128-4C19-A5D7-C9F0B13C3314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -180,31 +180,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -221,8 +201,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +480,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -551,7 +530,7 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -570,6 +549,7 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="4">
@@ -588,7 +568,7 @@
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -609,7 +589,7 @@
       <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -630,7 +610,7 @@
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
